--- a/data/trans_orig/P1805_2016_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P1805_2016_2023-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>9979</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5041</v>
+        <v>4983</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16811</v>
+        <v>16759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0232555679003498</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01174799432975033</v>
+        <v>0.01161180207157183</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03917800154212592</v>
+        <v>0.03905734039728938</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -763,19 +763,19 @@
         <v>15014</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8299</v>
+        <v>8912</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23352</v>
+        <v>24009</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04326133722916455</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02391127311276043</v>
+        <v>0.02567786035074244</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06728559575720888</v>
+        <v>0.06917959635794503</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -784,19 +784,19 @@
         <v>24993</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16720</v>
+        <v>15866</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36588</v>
+        <v>35521</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03220116860129668</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0215418891941937</v>
+        <v>0.02044212385677522</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04714000743554172</v>
+        <v>0.04576626696752233</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>419113</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412281</v>
+        <v>412333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>424051</v>
+        <v>424109</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9767444320996502</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9608219984578741</v>
+        <v>0.9609426596027109</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9882520056702496</v>
+        <v>0.9883881979284282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>317</v>
@@ -834,19 +834,19 @@
         <v>332041</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>323703</v>
+        <v>323046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>338756</v>
+        <v>338143</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9567386627708354</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9327144042427911</v>
+        <v>0.9308204036420545</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9760887268872396</v>
+        <v>0.9743221396492575</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>703</v>
@@ -855,19 +855,19 @@
         <v>751154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>739559</v>
+        <v>740626</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>759427</v>
+        <v>760281</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9677988313987033</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9528599925644583</v>
+        <v>0.9542337330324777</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9784581108058064</v>
+        <v>0.9795578761432248</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>7280</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2908</v>
+        <v>3461</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13971</v>
+        <v>14436</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01929911621250575</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007710132351565875</v>
+        <v>0.009174510640769074</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0370373082926688</v>
+        <v>0.0382680824371357</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -980,19 +980,19 @@
         <v>8455</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3510</v>
+        <v>3725</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17883</v>
+        <v>17142</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02271227202601388</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009429607053823418</v>
+        <v>0.01000617285770117</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04803857985760946</v>
+        <v>0.04604633146405824</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>14</v>
@@ -1001,19 +1001,19 @@
         <v>15735</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8610</v>
+        <v>8599</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26307</v>
+        <v>27418</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02099441470987828</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01148724796630521</v>
+        <v>0.01147288266036521</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03509958503345367</v>
+        <v>0.03658173528701254</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>369947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>363256</v>
+        <v>362791</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>374319</v>
+        <v>373766</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9807008837874942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9629626917073311</v>
+        <v>0.9617319175628644</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9922898676484342</v>
+        <v>0.9908254893592309</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>345</v>
@@ -1051,19 +1051,19 @@
         <v>363818</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>354390</v>
+        <v>355131</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>368763</v>
+        <v>368548</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9772877279739861</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9519614201423905</v>
+        <v>0.9539536685359413</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9905703929461765</v>
+        <v>0.9899938271422989</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>692</v>
@@ -1072,19 +1072,19 @@
         <v>733765</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>723193</v>
+        <v>722082</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>740890</v>
+        <v>740901</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9790055852901217</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9649004149665463</v>
+        <v>0.9634182647129873</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9885127520336946</v>
+        <v>0.9885271173396347</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>12661</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6863</v>
+        <v>6801</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21641</v>
+        <v>20637</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02425842103775877</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01315030726327163</v>
+        <v>0.01303020263620025</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04146439694489315</v>
+        <v>0.03954028879591164</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1197,19 +1197,19 @@
         <v>11057</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5101</v>
+        <v>5330</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20082</v>
+        <v>19664</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06655875638283518</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03070423265817095</v>
+        <v>0.03208596000717917</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1208852732807712</v>
+        <v>0.118371148399081</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -1218,19 +1218,19 @@
         <v>23718</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14939</v>
+        <v>14540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36492</v>
+        <v>34799</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03447161521520463</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02171312890123649</v>
+        <v>0.02113273937329743</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05303781262111371</v>
+        <v>0.05057753015843047</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>509253</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>500273</v>
+        <v>501277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>515051</v>
+        <v>515113</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9757415789622412</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9585356030551068</v>
+        <v>0.9604597112040879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9868496927367284</v>
+        <v>0.9869697973637998</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>144</v>
@@ -1268,19 +1268,19 @@
         <v>155066</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>146041</v>
+        <v>146459</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161022</v>
+        <v>160793</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9334412436171649</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8791147267192286</v>
+        <v>0.8816288516009185</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9692957673418279</v>
+        <v>0.9679140399928207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>634</v>
@@ -1289,19 +1289,19 @@
         <v>664318</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>651544</v>
+        <v>653237</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>673097</v>
+        <v>673496</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9655283847847954</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9469621873788863</v>
+        <v>0.9494224698415694</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9782868710987634</v>
+        <v>0.9788672606267025</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>14036</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7344</v>
+        <v>8029</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24375</v>
+        <v>24427</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01220899897203412</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006388376845843208</v>
+        <v>0.006983663928556704</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0212021913160147</v>
+        <v>0.02124717101036306</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>31</v>
@@ -1414,19 +1414,19 @@
         <v>34107</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>23110</v>
+        <v>24369</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47440</v>
+        <v>47928</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04129836370176878</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02798239998856748</v>
+        <v>0.02950646764768392</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0574421796834854</v>
+        <v>0.0580329014975236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>44</v>
@@ -1435,19 +1435,19 @@
         <v>48143</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>34870</v>
+        <v>35585</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64248</v>
+        <v>64335</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02436998658228064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01765118187756731</v>
+        <v>0.01801282589778994</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03252194844414081</v>
+        <v>0.03256600097710194</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1135602</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1125263</v>
+        <v>1125211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1142294</v>
+        <v>1141609</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9877910010279659</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9787978086839852</v>
+        <v>0.9787528289896369</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9936116231541567</v>
+        <v>0.9930163360714431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>767</v>
@@ -1485,19 +1485,19 @@
         <v>791769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>778436</v>
+        <v>777948</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>802766</v>
+        <v>801507</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9587016362982312</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9425578203165149</v>
+        <v>0.9419670985024764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9720176000114326</v>
+        <v>0.9704935323523161</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1857</v>
@@ -1506,19 +1506,19 @@
         <v>1927371</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1911266</v>
+        <v>1911179</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1940644</v>
+        <v>1939929</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9756300134177194</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9674780515558589</v>
+        <v>0.9674339990228974</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9823488181224325</v>
+        <v>0.9819871741022099</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>10337</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5114</v>
+        <v>5069</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18726</v>
+        <v>18511</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01665366980362805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008238525584814664</v>
+        <v>0.008166460423418865</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03016826032294479</v>
+        <v>0.02982257027113393</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1631,19 +1631,19 @@
         <v>28262</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18701</v>
+        <v>18826</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41605</v>
+        <v>41642</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03828210581025029</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02533126598056674</v>
+        <v>0.02550097419078688</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05635612357827437</v>
+        <v>0.05640711716410113</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>35</v>
@@ -1652,19 +1652,19 @@
         <v>38599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26929</v>
+        <v>27262</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52024</v>
+        <v>54393</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02840323070907533</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01981595027436208</v>
+        <v>0.02006134757026542</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03828217761000362</v>
+        <v>0.0400255439480009</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>610369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>601980</v>
+        <v>602195</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>615592</v>
+        <v>615637</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.983346330196372</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9698317396770553</v>
+        <v>0.970177429728866</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9917614744151856</v>
+        <v>0.9918335395765812</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>674</v>
@@ -1702,19 +1702,19 @@
         <v>709982</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>696639</v>
+        <v>696602</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>719543</v>
+        <v>719418</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9617178941897497</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9436438764217254</v>
+        <v>0.9435928828358986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9746687340194331</v>
+        <v>0.974499025809213</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1261</v>
@@ -1723,19 +1723,19 @@
         <v>1320351</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1306926</v>
+        <v>1304557</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1332021</v>
+        <v>1331688</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9715967692909246</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9617178223899966</v>
+        <v>0.9599744560519992</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9801840497256382</v>
+        <v>0.9799386524297345</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>6770</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2866</v>
+        <v>2857</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13627</v>
+        <v>12703</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02357818771646437</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009981378657163951</v>
+        <v>0.009949931682897184</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04745671973636097</v>
+        <v>0.04423764473093868</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>30</v>
@@ -1848,19 +1848,19 @@
         <v>34044</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>23385</v>
+        <v>23703</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>47719</v>
+        <v>48543</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03146281959893647</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02161265887725364</v>
+        <v>0.02190618605395556</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04410168306651851</v>
+        <v>0.04486291503342383</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -1869,19 +1869,19 @@
         <v>40814</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29248</v>
+        <v>28917</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53860</v>
+        <v>55655</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02980923838912861</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02136149668037328</v>
+        <v>0.02111997437983329</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03933805784097868</v>
+        <v>0.04064841269621745</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>280375</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>273518</v>
+        <v>274442</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284279</v>
+        <v>284288</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9764218122835356</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.952543280263639</v>
+        <v>0.9557623552690613</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.990018621342836</v>
+        <v>0.9900500683171028</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>962</v>
@@ -1919,19 +1919,19 @@
         <v>1047981</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1034306</v>
+        <v>1033482</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1058640</v>
+        <v>1058322</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9685371804010635</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9558983169334814</v>
+        <v>0.9551370849665761</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9783873411227463</v>
+        <v>0.9780938139460443</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1227</v>
@@ -1940,19 +1940,19 @@
         <v>1328356</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1315310</v>
+        <v>1313515</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1339922</v>
+        <v>1340253</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9701907616108714</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9606619421590213</v>
+        <v>0.9593515873037828</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9786385033196267</v>
+        <v>0.978880025620167</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>61063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>45978</v>
+        <v>48120</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>78564</v>
+        <v>78314</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01803545980115462</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01357998496731948</v>
+        <v>0.0142126427023588</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02320449997334012</v>
+        <v>0.02313062243057569</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -2065,19 +2065,19 @@
         <v>130939</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>108320</v>
+        <v>108908</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>153959</v>
+        <v>154656</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0370763187880672</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03067176788414066</v>
+        <v>0.0308380409150381</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04359486256917056</v>
+        <v>0.04379206741205278</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>176</v>
@@ -2086,19 +2086,19 @@
         <v>192002</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>164918</v>
+        <v>164068</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>222342</v>
+        <v>220076</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02775665789559053</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0238413894380589</v>
+        <v>0.02371846430359717</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03214280962045837</v>
+        <v>0.0318151597287403</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>3324659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3307158</v>
+        <v>3307408</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3339744</v>
+        <v>3337602</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9819645401988454</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9767955000266598</v>
+        <v>0.9768693775694243</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9864200150326805</v>
+        <v>0.9857873572976411</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3209</v>
@@ -2136,19 +2136,19 @@
         <v>3400657</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3377637</v>
+        <v>3376940</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3423276</v>
+        <v>3422688</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9629236812119328</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9564051374308298</v>
+        <v>0.9562079325879472</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9693282321158596</v>
+        <v>0.9691619590849617</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6374</v>
@@ -2157,19 +2157,19 @@
         <v>6725316</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6694976</v>
+        <v>6697242</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6752400</v>
+        <v>6753250</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9722433421044094</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9678571903795417</v>
+        <v>0.9681848402712596</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9761586105619408</v>
+        <v>0.9762815356964027</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>21965</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12897</v>
+        <v>13427</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37163</v>
+        <v>38448</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03989178921484412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02342345847288989</v>
+        <v>0.02438512879172514</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06749338881392568</v>
+        <v>0.0698267048659426</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>36</v>
@@ -2524,19 +2524,19 @@
         <v>26636</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18293</v>
+        <v>18702</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37173</v>
+        <v>38174</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05453675996329469</v>
+        <v>0.05453675996329468</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03745484702248941</v>
+        <v>0.03829092275657361</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07611067292059498</v>
+        <v>0.07816054900029064</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>53</v>
@@ -2545,19 +2545,19 @@
         <v>48601</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35935</v>
+        <v>35872</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>65371</v>
+        <v>65646</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04677587242092035</v>
+        <v>0.04677587242092034</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03458505637419976</v>
+        <v>0.03452479442507287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06291532515339374</v>
+        <v>0.06317980299450171</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>528653</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>513455</v>
+        <v>512170</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>537721</v>
+        <v>537191</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.960108210785156</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9325066111860743</v>
+        <v>0.9301732951340568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9765765415271099</v>
+        <v>0.9756148712082748</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>650</v>
@@ -2595,19 +2595,19 @@
         <v>461775</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>451238</v>
+        <v>450237</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>470118</v>
+        <v>469709</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9454632400367053</v>
+        <v>0.9454632400367052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9238893270794051</v>
+        <v>0.9218394509997095</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9625451529775105</v>
+        <v>0.9617090772434264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1187</v>
@@ -2616,19 +2616,19 @@
         <v>990428</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>973658</v>
+        <v>973383</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1003094</v>
+        <v>1003157</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9532241275790798</v>
+        <v>0.9532241275790797</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9370846748466065</v>
+        <v>0.9368201970054981</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9654149436258004</v>
+        <v>0.9654752055749269</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>16722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10537</v>
+        <v>10224</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28089</v>
+        <v>27575</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03460653621857127</v>
+        <v>0.03460653621857126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02180662942791609</v>
+        <v>0.02115851942585217</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05813003663345234</v>
+        <v>0.05706561268033302</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>34</v>
@@ -2741,19 +2741,19 @@
         <v>25219</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17075</v>
+        <v>17871</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>34741</v>
+        <v>34534</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05959991526524235</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04035300385829274</v>
+        <v>0.0422340411926647</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08210119484681538</v>
+        <v>0.08161307618785144</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -2762,19 +2762,19 @@
         <v>41942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30224</v>
+        <v>31926</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54721</v>
+        <v>55520</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04627499916277991</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03334625888025146</v>
+        <v>0.03522456030317157</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06037467214626971</v>
+        <v>0.06125618813115019</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>466490</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>455123</v>
+        <v>455637</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>472675</v>
+        <v>472988</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9653934637814287</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9418699633665476</v>
+        <v>0.9429343873196668</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.978193370572084</v>
+        <v>0.9788414805741475</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>556</v>
@@ -2812,19 +2812,19 @@
         <v>397924</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>388402</v>
+        <v>388609</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>406068</v>
+        <v>405272</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9404000847347576</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9178988051531847</v>
+        <v>0.9183869238121486</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9596469961417073</v>
+        <v>0.9577659588073355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1020</v>
@@ -2833,19 +2833,19 @@
         <v>864413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>851634</v>
+        <v>850835</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>876131</v>
+        <v>874429</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.95372500083722</v>
+        <v>0.9537250008372201</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9396253278537302</v>
+        <v>0.9387438118688501</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9666537411197483</v>
+        <v>0.9647754396968286</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>13516</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7269</v>
+        <v>7089</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23404</v>
+        <v>23862</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02865862074873813</v>
+        <v>0.02865862074873812</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01541278676576133</v>
+        <v>0.01503175421764318</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04962650808241003</v>
+        <v>0.05059589109638932</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -2958,19 +2958,19 @@
         <v>7349</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3801</v>
+        <v>4072</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12123</v>
+        <v>12733</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0391956241067809</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0202704787929723</v>
+        <v>0.02171518745997449</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06465868200888128</v>
+        <v>0.06791139773964694</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>24</v>
@@ -2979,19 +2979,19 @@
         <v>20865</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>12850</v>
+        <v>13540</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>31024</v>
+        <v>32565</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03165609085031675</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01949611861089561</v>
+        <v>0.02054250757421539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0470696963169657</v>
+        <v>0.04940772791450001</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>458096</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>448208</v>
+        <v>447750</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>464343</v>
+        <v>464523</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.971341379251262</v>
+        <v>0.9713413792512618</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.95037349191759</v>
+        <v>0.9494041089036107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.984587213234239</v>
+        <v>0.9849682457823569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>277</v>
@@ -3029,19 +3029,19 @@
         <v>180148</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>175374</v>
+        <v>174764</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>183696</v>
+        <v>183425</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.960804375893219</v>
+        <v>0.9608043758932192</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9353413179911189</v>
+        <v>0.9320886022603531</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9797295212070278</v>
+        <v>0.9782848125400256</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>753</v>
@@ -3050,19 +3050,19 @@
         <v>638244</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>628085</v>
+        <v>626544</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>646259</v>
+        <v>645569</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9683439091496834</v>
+        <v>0.9683439091496833</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9529303036830342</v>
+        <v>0.9505922720855</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9805038813891044</v>
+        <v>0.9794574924257845</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>35390</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23891</v>
+        <v>23684</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51656</v>
+        <v>52346</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03126743132156898</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02110769117763766</v>
+        <v>0.02092491565482727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04563847309054192</v>
+        <v>0.0462488501118047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -3175,19 +3175,19 @@
         <v>37623</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28896</v>
+        <v>28663</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49222</v>
+        <v>49217</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04371658374087665</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0335764218982707</v>
+        <v>0.03330512063602283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05719428958558963</v>
+        <v>0.05718792956127376</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>81</v>
@@ -3196,19 +3196,19 @@
         <v>73013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>57566</v>
+        <v>57657</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91960</v>
+        <v>91184</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03664467424285563</v>
+        <v>0.03664467424285565</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02889191125478545</v>
+        <v>0.02893761003102936</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04615403146725112</v>
+        <v>0.04576453983426101</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>1096453</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1080187</v>
+        <v>1079497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1107952</v>
+        <v>1108159</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.968732568678431</v>
+        <v>0.9687325686784308</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9543615269094579</v>
+        <v>0.9537511498881952</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9788923088223624</v>
+        <v>0.9790750843451728</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1177</v>
@@ -3246,19 +3246,19 @@
         <v>822992</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>811393</v>
+        <v>811398</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>831719</v>
+        <v>831952</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9562834162591234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9428057104144104</v>
+        <v>0.9428120704387263</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9664235781017293</v>
+        <v>0.9666948793639777</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2266</v>
@@ -3267,19 +3267,19 @@
         <v>1919445</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1900498</v>
+        <v>1901274</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1934892</v>
+        <v>1934801</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9633553257571443</v>
+        <v>0.9633553257571444</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9538459685327488</v>
+        <v>0.9542354601657388</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9711080887452144</v>
+        <v>0.9710623899689705</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>11005</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5282</v>
+        <v>5166</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19716</v>
+        <v>19627</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01937639816487282</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009300442296937906</v>
+        <v>0.009094892790928923</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03471411827888536</v>
+        <v>0.03455752657174367</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>43</v>
@@ -3392,19 +3392,19 @@
         <v>26979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20013</v>
+        <v>19816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37556</v>
+        <v>36111</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03247177718018952</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02408699153629809</v>
+        <v>0.02384975037100201</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04520187275176343</v>
+        <v>0.04346261286781351</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>53</v>
@@ -3413,19 +3413,19 @@
         <v>37984</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29283</v>
+        <v>28620</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50510</v>
+        <v>50103</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02715462952623309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0209343487224549</v>
+        <v>0.02045992893238916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03610942175256569</v>
+        <v>0.03581788144279343</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>556959</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>548248</v>
+        <v>548337</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>562682</v>
+        <v>562798</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9806236018351272</v>
+        <v>0.980623601835127</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9652858817211145</v>
+        <v>0.9654424734282563</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9906995577030617</v>
+        <v>0.990905107209071</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1247</v>
@@ -3463,19 +3463,19 @@
         <v>803871</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>793294</v>
+        <v>794739</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>810837</v>
+        <v>811034</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9675282228198104</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9547981272482365</v>
+        <v>0.9565373871321865</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9759130084637019</v>
+        <v>0.976150249628998</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1784</v>
@@ -3484,19 +3484,19 @@
         <v>1360830</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1348304</v>
+        <v>1348711</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1369531</v>
+        <v>1370194</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9728453704737668</v>
+        <v>0.9728453704737667</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9638905782474343</v>
+        <v>0.9641821185572066</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.979065651277545</v>
+        <v>0.979540071067611</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>14144</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6528</v>
+        <v>5944</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31207</v>
+        <v>29417</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05962281343349828</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02751690619662759</v>
+        <v>0.0250548312017305</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1315483308649314</v>
+        <v>0.1240030517039535</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -3609,19 +3609,19 @@
         <v>26062</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16658</v>
+        <v>16345</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41110</v>
+        <v>40432</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03089410367970592</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01974631074890047</v>
+        <v>0.01937505174196305</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04873139069294724</v>
+        <v>0.04792869529114061</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>33</v>
@@ -3630,19 +3630,19 @@
         <v>40206</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27380</v>
+        <v>27817</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>60590</v>
+        <v>59433</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03719970755711225</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02533284921946028</v>
+        <v>0.0257369062731145</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05605914201629959</v>
+        <v>0.05498863472601472</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>223084</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>206021</v>
+        <v>207811</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>230700</v>
+        <v>231284</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9403771865665017</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8684516691350692</v>
+        <v>0.8759969482960464</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9724830938033724</v>
+        <v>0.9749451687982695</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1132</v>
@@ -3680,19 +3680,19 @@
         <v>817534</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>802486</v>
+        <v>803164</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>826938</v>
+        <v>827251</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.969105896320294</v>
+        <v>0.9691058963202942</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.951268609307052</v>
+        <v>0.9520713047088593</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9802536892510995</v>
+        <v>0.9806249482580369</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1237</v>
@@ -3701,19 +3701,19 @@
         <v>1040618</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1020234</v>
+        <v>1021391</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1053444</v>
+        <v>1053007</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9628002924428877</v>
+        <v>0.9628002924428876</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9439408579837001</v>
+        <v>0.9450113652739853</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9746671507805398</v>
+        <v>0.9742630937268852</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>112742</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>90335</v>
+        <v>89245</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>140688</v>
+        <v>138692</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03275034258007844</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02624128048666478</v>
+        <v>0.02592469845924755</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0408683088191629</v>
+        <v>0.04028836566643827</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>203</v>
@@ -3826,19 +3826,19 @@
         <v>149869</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>128823</v>
+        <v>129494</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>174661</v>
+        <v>175038</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0412395549058047</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03544824469354085</v>
+        <v>0.03563286278931014</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04806147991899122</v>
+        <v>0.04816529499294864</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>295</v>
@@ -3847,19 +3847,19 @@
         <v>262611</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>231456</v>
+        <v>231812</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>302096</v>
+        <v>298825</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03710989399247404</v>
+        <v>0.03710989399247405</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0327072907374835</v>
+        <v>0.03275761102570722</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04268951029428062</v>
+        <v>0.04222723581321604</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>3329734</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3301788</v>
+        <v>3303784</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3352141</v>
+        <v>3353231</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9672496574199216</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9591316911808363</v>
+        <v>0.9597116343335615</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9737587195133348</v>
+        <v>0.9740753015407523</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5039</v>
@@ -3897,19 +3897,19 @@
         <v>3484243</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3459451</v>
+        <v>3459074</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3505289</v>
+        <v>3504618</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9587604450941953</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9519385200810092</v>
+        <v>0.9518347050070513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9645517553064592</v>
+        <v>0.96436713721069</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8247</v>
@@ -3918,19 +3918,19 @@
         <v>6813977</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6774492</v>
+        <v>6777763</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6845132</v>
+        <v>6844776</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9628901060075259</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9573104897057194</v>
+        <v>0.957772764186784</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9672927092625166</v>
+        <v>0.9672423889742926</v>
       </c>
     </row>
     <row r="24">
